--- a/ReportingWeb/src/main/resources/xls/AIFM_Help_v1.2.xlsx
+++ b/ReportingWeb/src/main/resources/xls/AIFM_Help_v1.2.xlsx
@@ -1657,31 +1657,6 @@
   </si>
   <si>
     <r>
-      <t>El Código con el que nos costa que la gestora está registrada en la CNMV. Nos consta que es:</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 43</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-  Ver link https://www.cnmv.es/Portal/Consultas/ListadoEntidad.aspx?id=2&amp;tipo=0</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <rPr>
         <b/>
         <sz val="12"/>
@@ -1699,32 +1674,6 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> es muy recomendable proporcionar el nombre completo correspondiente al código LEI (identificador de persona jurídica ISO 17442)  o el código BIC (código SWIFT) si  el código LEI no está disponible.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Nombre (descripción larga del fondo), registrada en la CNMV
-El nombre con el que nos costa que la gestora está registrada en la CNMV. Nos consta que es:</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> RENTA 4 GESTORA, S.G.I.I.C., S.A.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Ver link https://www.cnmv.es/Portal/Consultas/ListadoEntidad.aspx?id=2&amp;tipo=0</t>
     </r>
   </si>
   <si>
@@ -1832,31 +1781,6 @@
         <scheme val="minor"/>
       </rPr>
       <t>: resto de los casos</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>El Código LEI de la gestora, en vuestro caso es:</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 95980020140005287162</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Ver: http://www.lei-lookup.com/legal-entity-identifier-search/#!record;lei=95980020140005287162;searchFrom=0</t>
     </r>
   </si>
   <si>
@@ -2094,6 +2018,52 @@
   <si>
     <t>ESMA Q&amp;A Section III. Question 63 [last update 12 May 2015]: Should AIFMs take into account cash and cash equivalents for the purpose of the main instruments in which the AIF is trading (questions 64 to 77 of the consolidated reporting template), the principal exposures of the AIF (questions 94 to 102 of the consolidated reporting template) and the five most important portfolio concentrations (questions 103 to 112 of the consolidated reporting template)? 
  Answer 63: Yes.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">El Código con el que nos costa que la gestora está registrada en la CNMV. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+  Ver link https://www.cnmv.es/Portal/Consultas/ListadoEntidad.aspx?id=2&amp;tipo=0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Nombre (descripción larga del fondo), registrada en la CNMV
+El nombre con el que nos costa que la gestora está registrada en la CNMV. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Ver link https://www.cnmv.es/Portal/Consultas/ListadoEntidad.aspx?id=2&amp;tipo=0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>El Código LEI de la gestora</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Ver: http://www.lei-lookup.com/legal-entity-identifier-search/#!record;lei=95980020140005287162;searchFrom=0</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -3456,13 +3426,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AU422"/>
+  <dimension ref="A1:S422"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="O45" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="Q49" sqref="Q49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15.75"/>
@@ -4160,7 +4130,7 @@
         <v>64</v>
       </c>
       <c r="J16" s="20" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="K16" s="25" t="s">
         <v>54</v>
@@ -4262,7 +4232,7 @@
         <v>75</v>
       </c>
       <c r="J18" s="20" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="K18" s="25" t="s">
         <v>76</v>
@@ -4314,7 +4284,7 @@
         <v>83</v>
       </c>
       <c r="J19" s="20" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="K19" s="25" t="s">
         <v>76</v>
@@ -4481,7 +4451,7 @@
       <c r="O22" s="27"/>
       <c r="P22" s="27"/>
       <c r="Q22" s="20" t="s">
-        <v>358</v>
+        <v>375</v>
       </c>
       <c r="R22" s="36">
         <v>12</v>
@@ -4526,12 +4496,12 @@
         <v>99</v>
       </c>
       <c r="N23" s="20" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="O23" s="27"/>
       <c r="P23" s="27"/>
       <c r="Q23" s="20" t="s">
-        <v>360</v>
+        <v>376</v>
       </c>
       <c r="R23" s="26" t="s">
         <v>223</v>
@@ -4576,7 +4546,7 @@
         <v>102</v>
       </c>
       <c r="N24" s="20" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="O24" s="27"/>
       <c r="P24" s="27"/>
@@ -4587,7 +4557,7 @@
         <v>1</v>
       </c>
       <c r="S24" s="16" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
     </row>
     <row r="25" spans="1:19" ht="126">
@@ -4629,7 +4599,7 @@
         <v>105</v>
       </c>
       <c r="N25" s="32" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="O25" s="31"/>
       <c r="P25" s="31"/>
@@ -4706,7 +4676,7 @@
       <c r="O27" s="22"/>
       <c r="P27" s="22"/>
       <c r="Q27" s="20" t="s">
-        <v>363</v>
+        <v>377</v>
       </c>
       <c r="R27" s="23" t="s">
         <v>224</v>
@@ -4751,7 +4721,7 @@
         <v>115</v>
       </c>
       <c r="N28" s="20" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="O28" s="27"/>
       <c r="P28" s="27"/>
@@ -4930,7 +4900,7 @@
       <c r="O32" s="22"/>
       <c r="P32" s="22"/>
       <c r="Q32" s="20" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="R32" s="42">
         <v>1</v>
@@ -4975,12 +4945,12 @@
         <v>131</v>
       </c>
       <c r="N33" s="20" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="O33" s="27"/>
       <c r="P33" s="27"/>
       <c r="Q33" s="20" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="R33" s="26" t="s">
         <v>225</v>
@@ -5015,7 +4985,7 @@
         <v>136</v>
       </c>
       <c r="J34" s="20" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="K34" s="17" t="s">
         <v>137</v>
@@ -5154,7 +5124,7 @@
         <v>205</v>
       </c>
       <c r="O37" s="22" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="P37" s="22" t="s">
         <v>243</v>
@@ -5208,7 +5178,7 @@
         <v>206</v>
       </c>
       <c r="O38" s="22" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="P38" s="27"/>
       <c r="Q38" s="20" t="s">
@@ -5247,7 +5217,7 @@
         <v>153</v>
       </c>
       <c r="J39" s="20" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="K39" s="18" t="s">
         <v>137</v>
@@ -5262,7 +5232,7 @@
         <v>207</v>
       </c>
       <c r="O39" s="22" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="P39" s="31"/>
       <c r="Q39" s="32" t="s">
@@ -5338,7 +5308,7 @@
       <c r="O41" s="22"/>
       <c r="P41" s="22"/>
       <c r="Q41" s="20" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="R41" s="23" t="s">
         <v>228</v>
@@ -5473,7 +5443,7 @@
         <v>169</v>
       </c>
       <c r="J44" s="20" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="K44" s="17" t="s">
         <v>54</v>
@@ -5525,7 +5495,7 @@
         <v>169</v>
       </c>
       <c r="J45" s="20" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="K45" s="17" t="s">
         <v>54</v>
@@ -5577,7 +5547,7 @@
         <v>179</v>
       </c>
       <c r="J46" s="20" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="K46" s="17" t="s">
         <v>54</v>

--- a/ReportingWeb/src/main/resources/xls/AIFM_Help_v1.2.xlsx
+++ b/ReportingWeb/src/main/resources/xls/AIFM_Help_v1.2.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="345" windowWidth="19875" windowHeight="7725"/>
@@ -12,7 +12,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Technical guidance AIFM file'!$A$2:$R$50</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -2051,19 +2051,9 @@
     </r>
   </si>
   <si>
-    <r>
-      <t>El Código LEI de la gestora</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Ver: http://www.lei-lookup.com/legal-entity-identifier-search/#!record;lei=95980020140005287162;searchFrom=0</t>
-    </r>
+    <t xml:space="preserve">El Código LEI de la gestora.
+Ver: http://www.lei-lookup.com/legal-entity-identifier-search/#!search;from=0
+</t>
   </si>
 </sst>
 </file>
@@ -3429,10 +3419,10 @@
   <dimension ref="A1:S422"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="O45" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="P27" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Q49" sqref="Q49"/>
+      <selection pane="bottomRight" activeCell="Q27" sqref="Q27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15.75"/>
@@ -5364,7 +5354,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="43" spans="1:18" ht="63">
+    <row r="43" spans="1:18" ht="47.25">
       <c r="A43" s="5">
         <v>35</v>
       </c>
